--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_7_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_7_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.20187944687913, 67.73453362166921]</t>
+          <t>[60.18295375703367, 67.75345931151467]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.43057870153169, 52.58224059805649]</t>
+          <t>[47.43204292614425, 52.580776373443925]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.58948737921395, 67.80030202385015]</t>
+          <t>[59.61403140573342, 67.77575799733069]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1635528346628865, 1.3145002294299646]</t>
+          <t>[1.1761317842268104, 1.3019212798660407]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.780189721513196, 51.44552024073779]</t>
+          <t>[46.7822916248994, 51.44341833735159]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>20.43133133133176</v>
       </c>
       <c r="X3" t="n">
-        <v>20.12562562562605</v>
+        <v>20.176576576577</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.73703703703748</v>
+        <v>20.68608608608652</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_7_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_7_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.18295375703367, 67.75345931151467]</t>
+          <t>[60.237955019273414, 67.69845804927493]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.43204292614425, 52.580776373443925]</t>
+          <t>[47.43101836622248, 52.58180093336569]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.61403140573342, 67.77575799733069]</t>
+          <t>[59.692307313953044, 67.69748208911105]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.7822916248994, 51.44341833735159]</t>
+          <t>[46.780043255907025, 51.445666706343964]</t>
         </is>
       </c>
       <c r="U3" t="n">
